--- a/直播源汇总文档/IPV6直播源汇总/移动ITV-域名版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/移动ITV-域名版.xlsx
@@ -2547,10 +2547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安多卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id=1000000005000266001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3067,10 +3063,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>康巴卫视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id=1000000005000266002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4073,6 +4065,12 @@
   <si>
     <t>id=7745129417417101820</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海安多卫视</t>
+  </si>
+  <si>
+    <t>四川康巴卫视</t>
   </si>
 </sst>
 </file>
@@ -4474,7 +4472,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B2" t="s">
         <v>181</v>
@@ -4483,12 +4481,12 @@
         <v>450</v>
       </c>
       <c r="D2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B3" t="s">
         <v>181</v>
@@ -4497,12 +4495,12 @@
         <v>452</v>
       </c>
       <c r="D3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B4" t="s">
         <v>181</v>
@@ -4511,12 +4509,12 @@
         <v>450</v>
       </c>
       <c r="D4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B5" t="s">
         <v>181</v>
@@ -4525,12 +4523,12 @@
         <v>452</v>
       </c>
       <c r="D5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B6" t="s">
         <v>181</v>
@@ -4539,12 +4537,12 @@
         <v>450</v>
       </c>
       <c r="D6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B7" t="s">
         <v>181</v>
@@ -4553,12 +4551,12 @@
         <v>452</v>
       </c>
       <c r="D7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B8" t="s">
         <v>181</v>
@@ -4567,12 +4565,12 @@
         <v>459</v>
       </c>
       <c r="D8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B9" t="s">
         <v>181</v>
@@ -4581,12 +4579,12 @@
         <v>461</v>
       </c>
       <c r="D9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B10" t="s">
         <v>181</v>
@@ -4595,12 +4593,12 @@
         <v>459</v>
       </c>
       <c r="D10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B11" t="s">
         <v>181</v>
@@ -4609,12 +4607,12 @@
         <v>461</v>
       </c>
       <c r="D11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B12" t="s">
         <v>181</v>
@@ -4623,12 +4621,12 @@
         <v>459</v>
       </c>
       <c r="D12" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B13" t="s">
         <v>181</v>
@@ -4637,12 +4635,12 @@
         <v>461</v>
       </c>
       <c r="D13" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B14" t="s">
         <v>181</v>
@@ -4651,12 +4649,12 @@
         <v>465</v>
       </c>
       <c r="D14" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B15" t="s">
         <v>181</v>
@@ -4665,12 +4663,12 @@
         <v>467</v>
       </c>
       <c r="D15" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B16" t="s">
         <v>181</v>
@@ -4679,12 +4677,12 @@
         <v>450</v>
       </c>
       <c r="D16" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B17" t="s">
         <v>181</v>
@@ -4693,12 +4691,12 @@
         <v>452</v>
       </c>
       <c r="D17" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B18" t="s">
         <v>181</v>
@@ -4707,12 +4705,12 @@
         <v>450</v>
       </c>
       <c r="D18" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B19" t="s">
         <v>181</v>
@@ -4721,12 +4719,12 @@
         <v>452</v>
       </c>
       <c r="D19" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B20" t="s">
         <v>181</v>
@@ -4735,12 +4733,12 @@
         <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B21" t="s">
         <v>181</v>
@@ -4749,12 +4747,12 @@
         <v>452</v>
       </c>
       <c r="D21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B22" t="s">
         <v>181</v>
@@ -4763,12 +4761,12 @@
         <v>459</v>
       </c>
       <c r="D22" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B23" t="s">
         <v>181</v>
@@ -4777,12 +4775,12 @@
         <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B24" t="s">
         <v>181</v>
@@ -4791,12 +4789,12 @@
         <v>459</v>
       </c>
       <c r="D24" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B25" t="s">
         <v>181</v>
@@ -4805,12 +4803,12 @@
         <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B26" t="s">
         <v>181</v>
@@ -4819,12 +4817,12 @@
         <v>450</v>
       </c>
       <c r="D26" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B27" t="s">
         <v>181</v>
@@ -4833,12 +4831,12 @@
         <v>452</v>
       </c>
       <c r="D27" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B28" t="s">
         <v>181</v>
@@ -4847,12 +4845,12 @@
         <v>465</v>
       </c>
       <c r="D28" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B29" t="s">
         <v>181</v>
@@ -4861,12 +4859,12 @@
         <v>467</v>
       </c>
       <c r="D29" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B30" t="s">
         <v>181</v>
@@ -4875,12 +4873,12 @@
         <v>450</v>
       </c>
       <c r="D30" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B31" t="s">
         <v>181</v>
@@ -4889,12 +4887,12 @@
         <v>452</v>
       </c>
       <c r="D31" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B32" t="s">
         <v>181</v>
@@ -4903,12 +4901,12 @@
         <v>450</v>
       </c>
       <c r="D32" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B33" t="s">
         <v>181</v>
@@ -4917,12 +4915,12 @@
         <v>452</v>
       </c>
       <c r="D33" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B34" t="s">
         <v>181</v>
@@ -4931,12 +4929,12 @@
         <v>450</v>
       </c>
       <c r="D34" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B35" t="s">
         <v>181</v>
@@ -4945,12 +4943,12 @@
         <v>452</v>
       </c>
       <c r="D35" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B36" t="s">
         <v>181</v>
@@ -4959,12 +4957,12 @@
         <v>459</v>
       </c>
       <c r="D36" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B37" t="s">
         <v>181</v>
@@ -4973,12 +4971,12 @@
         <v>461</v>
       </c>
       <c r="D37" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B38" t="s">
         <v>181</v>
@@ -4987,12 +4985,12 @@
         <v>459</v>
       </c>
       <c r="D38" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B39" t="s">
         <v>181</v>
@@ -5001,12 +4999,12 @@
         <v>461</v>
       </c>
       <c r="D39" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B40" t="s">
         <v>181</v>
@@ -5015,12 +5013,12 @@
         <v>459</v>
       </c>
       <c r="D40" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B41" t="s">
         <v>181</v>
@@ -5029,12 +5027,12 @@
         <v>461</v>
       </c>
       <c r="D41" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B42" t="s">
         <v>181</v>
@@ -5043,12 +5041,12 @@
         <v>465</v>
       </c>
       <c r="D42" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B43" t="s">
         <v>181</v>
@@ -5057,12 +5055,12 @@
         <v>467</v>
       </c>
       <c r="D43" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B44" t="s">
         <v>181</v>
@@ -5071,12 +5069,12 @@
         <v>450</v>
       </c>
       <c r="D44" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B45" t="s">
         <v>181</v>
@@ -5085,12 +5083,12 @@
         <v>452</v>
       </c>
       <c r="D45" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B46" t="s">
         <v>181</v>
@@ -5099,12 +5097,12 @@
         <v>450</v>
       </c>
       <c r="D46" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B47" t="s">
         <v>181</v>
@@ -5113,12 +5111,12 @@
         <v>452</v>
       </c>
       <c r="D47" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B48" t="s">
         <v>181</v>
@@ -5127,12 +5125,12 @@
         <v>450</v>
       </c>
       <c r="D48" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B49" t="s">
         <v>181</v>
@@ -5141,12 +5139,12 @@
         <v>452</v>
       </c>
       <c r="D49" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B50" t="s">
         <v>181</v>
@@ -5155,12 +5153,12 @@
         <v>459</v>
       </c>
       <c r="D50" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B51" t="s">
         <v>181</v>
@@ -5169,12 +5167,12 @@
         <v>461</v>
       </c>
       <c r="D51" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B52" t="s">
         <v>181</v>
@@ -5183,12 +5181,12 @@
         <v>459</v>
       </c>
       <c r="D52" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B53" t="s">
         <v>181</v>
@@ -5197,12 +5195,12 @@
         <v>461</v>
       </c>
       <c r="D53" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B54" t="s">
         <v>181</v>
@@ -5211,12 +5209,12 @@
         <v>459</v>
       </c>
       <c r="D54" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B55" t="s">
         <v>181</v>
@@ -5225,12 +5223,12 @@
         <v>461</v>
       </c>
       <c r="D55" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B56" t="s">
         <v>181</v>
@@ -5239,12 +5237,12 @@
         <v>450</v>
       </c>
       <c r="D56" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B57" t="s">
         <v>181</v>
@@ -5253,12 +5251,12 @@
         <v>452</v>
       </c>
       <c r="D57" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B58" t="s">
         <v>181</v>
@@ -5267,12 +5265,12 @@
         <v>450</v>
       </c>
       <c r="D58" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B59" t="s">
         <v>181</v>
@@ -5281,12 +5279,12 @@
         <v>452</v>
       </c>
       <c r="D59" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B60" t="s">
         <v>181</v>
@@ -5295,12 +5293,12 @@
         <v>450</v>
       </c>
       <c r="D60" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B61" t="s">
         <v>181</v>
@@ -5309,12 +5307,12 @@
         <v>452</v>
       </c>
       <c r="D61" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B62" t="s">
         <v>181</v>
@@ -5323,12 +5321,12 @@
         <v>450</v>
       </c>
       <c r="D62" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B63" t="s">
         <v>181</v>
@@ -5337,12 +5335,12 @@
         <v>452</v>
       </c>
       <c r="D63" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B64" t="s">
         <v>181</v>
@@ -5351,12 +5349,12 @@
         <v>450</v>
       </c>
       <c r="D64" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B65" t="s">
         <v>181</v>
@@ -5365,12 +5363,12 @@
         <v>452</v>
       </c>
       <c r="D65" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B66" t="s">
         <v>181</v>
@@ -5379,12 +5377,12 @@
         <v>459</v>
       </c>
       <c r="D66" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B67" t="s">
         <v>181</v>
@@ -5393,12 +5391,12 @@
         <v>461</v>
       </c>
       <c r="D67" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B68" t="s">
         <v>181</v>
@@ -5407,12 +5405,12 @@
         <v>459</v>
       </c>
       <c r="D68" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B69" t="s">
         <v>181</v>
@@ -5421,12 +5419,12 @@
         <v>461</v>
       </c>
       <c r="D69" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B70" t="s">
         <v>181</v>
@@ -5435,12 +5433,12 @@
         <v>459</v>
       </c>
       <c r="D70" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B71" t="s">
         <v>181</v>
@@ -5449,12 +5447,12 @@
         <v>461</v>
       </c>
       <c r="D71" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B72" t="s">
         <v>181</v>
@@ -5463,12 +5461,12 @@
         <v>465</v>
       </c>
       <c r="D72" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B73" t="s">
         <v>181</v>
@@ -5477,12 +5475,12 @@
         <v>467</v>
       </c>
       <c r="D73" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B74" t="s">
         <v>181</v>
@@ -5491,12 +5489,12 @@
         <v>450</v>
       </c>
       <c r="D74" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B75" t="s">
         <v>181</v>
@@ -5505,12 +5503,12 @@
         <v>452</v>
       </c>
       <c r="D75" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B76" t="s">
         <v>181</v>
@@ -5519,12 +5517,12 @@
         <v>450</v>
       </c>
       <c r="D76" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B77" t="s">
         <v>181</v>
@@ -5533,12 +5531,12 @@
         <v>452</v>
       </c>
       <c r="D77" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B78" t="s">
         <v>181</v>
@@ -5547,12 +5545,12 @@
         <v>450</v>
       </c>
       <c r="D78" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B79" t="s">
         <v>181</v>
@@ -5561,12 +5559,12 @@
         <v>452</v>
       </c>
       <c r="D79" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B80" t="s">
         <v>181</v>
@@ -5575,12 +5573,12 @@
         <v>459</v>
       </c>
       <c r="D80" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B81" t="s">
         <v>181</v>
@@ -5589,12 +5587,12 @@
         <v>461</v>
       </c>
       <c r="D81" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B82" t="s">
         <v>181</v>
@@ -5603,12 +5601,12 @@
         <v>465</v>
       </c>
       <c r="D82" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B83" t="s">
         <v>181</v>
@@ -5617,12 +5615,12 @@
         <v>467</v>
       </c>
       <c r="D83" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B84" t="s">
         <v>181</v>
@@ -5631,12 +5629,12 @@
         <v>450</v>
       </c>
       <c r="D84" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B85" t="s">
         <v>181</v>
@@ -5645,12 +5643,12 @@
         <v>452</v>
       </c>
       <c r="D85" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B86" t="s">
         <v>181</v>
@@ -5659,12 +5657,12 @@
         <v>450</v>
       </c>
       <c r="D86" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B87" t="s">
         <v>181</v>
@@ -5673,12 +5671,12 @@
         <v>452</v>
       </c>
       <c r="D87" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B88" t="s">
         <v>181</v>
@@ -5687,12 +5685,12 @@
         <v>450</v>
       </c>
       <c r="D88" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B89" t="s">
         <v>181</v>
@@ -5701,12 +5699,12 @@
         <v>452</v>
       </c>
       <c r="D89" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B90" t="s">
         <v>181</v>
@@ -5715,12 +5713,12 @@
         <v>450</v>
       </c>
       <c r="D90" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B91" t="s">
         <v>181</v>
@@ -5729,12 +5727,12 @@
         <v>452</v>
       </c>
       <c r="D91" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B92" t="s">
         <v>181</v>
@@ -5743,12 +5741,12 @@
         <v>459</v>
       </c>
       <c r="D92" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B93" t="s">
         <v>181</v>
@@ -5757,12 +5755,12 @@
         <v>461</v>
       </c>
       <c r="D93" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B94" t="s">
         <v>181</v>
@@ -5771,12 +5769,12 @@
         <v>459</v>
       </c>
       <c r="D94" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B95" t="s">
         <v>181</v>
@@ -5785,12 +5783,12 @@
         <v>461</v>
       </c>
       <c r="D95" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B96" t="s">
         <v>181</v>
@@ -5799,12 +5797,12 @@
         <v>459</v>
       </c>
       <c r="D96" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B97" t="s">
         <v>181</v>
@@ -5813,12 +5811,12 @@
         <v>461</v>
       </c>
       <c r="D97" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B98" t="s">
         <v>181</v>
@@ -5827,12 +5825,12 @@
         <v>465</v>
       </c>
       <c r="D98" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B99" t="s">
         <v>181</v>
@@ -5841,12 +5839,12 @@
         <v>467</v>
       </c>
       <c r="D99" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B100" t="s">
         <v>181</v>
@@ -5855,12 +5853,12 @@
         <v>450</v>
       </c>
       <c r="D100" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B101" t="s">
         <v>181</v>
@@ -5869,12 +5867,12 @@
         <v>452</v>
       </c>
       <c r="D101" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B102" t="s">
         <v>181</v>
@@ -5883,12 +5881,12 @@
         <v>450</v>
       </c>
       <c r="D102" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B103" t="s">
         <v>181</v>
@@ -5897,12 +5895,12 @@
         <v>452</v>
       </c>
       <c r="D103" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B104" t="s">
         <v>181</v>
@@ -5911,12 +5909,12 @@
         <v>450</v>
       </c>
       <c r="D104" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B105" t="s">
         <v>181</v>
@@ -5925,12 +5923,12 @@
         <v>452</v>
       </c>
       <c r="D105" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B106" t="s">
         <v>181</v>
@@ -5939,12 +5937,12 @@
         <v>450</v>
       </c>
       <c r="D106" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B107" t="s">
         <v>181</v>
@@ -5953,12 +5951,12 @@
         <v>452</v>
       </c>
       <c r="D107" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B108" t="s">
         <v>181</v>
@@ -5967,12 +5965,12 @@
         <v>459</v>
       </c>
       <c r="D108" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B109" t="s">
         <v>181</v>
@@ -5981,12 +5979,12 @@
         <v>461</v>
       </c>
       <c r="D109" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B110" t="s">
         <v>181</v>
@@ -5995,12 +5993,12 @@
         <v>459</v>
       </c>
       <c r="D110" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B111" t="s">
         <v>181</v>
@@ -6009,12 +6007,12 @@
         <v>461</v>
       </c>
       <c r="D111" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B112" t="s">
         <v>181</v>
@@ -6023,12 +6021,12 @@
         <v>465</v>
       </c>
       <c r="D112" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B113" t="s">
         <v>181</v>
@@ -6037,12 +6035,12 @@
         <v>467</v>
       </c>
       <c r="D113" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B114" t="s">
         <v>181</v>
@@ -6051,12 +6049,12 @@
         <v>450</v>
       </c>
       <c r="D114" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B115" t="s">
         <v>181</v>
@@ -6065,12 +6063,12 @@
         <v>452</v>
       </c>
       <c r="D115" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B116" t="s">
         <v>181</v>
@@ -6079,12 +6077,12 @@
         <v>450</v>
       </c>
       <c r="D116" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B117" t="s">
         <v>181</v>
@@ -6093,12 +6091,12 @@
         <v>452</v>
       </c>
       <c r="D117" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B118" t="s">
         <v>181</v>
@@ -6107,12 +6105,12 @@
         <v>450</v>
       </c>
       <c r="D118" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B119" t="s">
         <v>181</v>
@@ -6121,12 +6119,12 @@
         <v>452</v>
       </c>
       <c r="D119" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B120" t="s">
         <v>181</v>
@@ -6135,12 +6133,12 @@
         <v>450</v>
       </c>
       <c r="D120" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B121" t="s">
         <v>181</v>
@@ -6149,12 +6147,12 @@
         <v>452</v>
       </c>
       <c r="D121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B122" t="s">
         <v>181</v>
@@ -6163,12 +6161,12 @@
         <v>459</v>
       </c>
       <c r="D122" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B123" t="s">
         <v>181</v>
@@ -6177,12 +6175,12 @@
         <v>461</v>
       </c>
       <c r="D123" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B124" t="s">
         <v>181</v>
@@ -6191,12 +6189,12 @@
         <v>459</v>
       </c>
       <c r="D124" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B125" t="s">
         <v>181</v>
@@ -6205,12 +6203,12 @@
         <v>461</v>
       </c>
       <c r="D125" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B126" t="s">
         <v>181</v>
@@ -6219,12 +6217,12 @@
         <v>465</v>
       </c>
       <c r="D126" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B127" t="s">
         <v>181</v>
@@ -6233,12 +6231,12 @@
         <v>467</v>
       </c>
       <c r="D127" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B128" t="s">
         <v>181</v>
@@ -6247,12 +6245,12 @@
         <v>450</v>
       </c>
       <c r="D128" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B129" t="s">
         <v>181</v>
@@ -6261,12 +6259,12 @@
         <v>452</v>
       </c>
       <c r="D129" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B130" t="s">
         <v>181</v>
@@ -6275,12 +6273,12 @@
         <v>450</v>
       </c>
       <c r="D130" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B131" t="s">
         <v>181</v>
@@ -6289,12 +6287,12 @@
         <v>452</v>
       </c>
       <c r="D131" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B132" t="s">
         <v>181</v>
@@ -6303,12 +6301,12 @@
         <v>450</v>
       </c>
       <c r="D132" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B133" t="s">
         <v>181</v>
@@ -6317,12 +6315,12 @@
         <v>452</v>
       </c>
       <c r="D133" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B134" t="s">
         <v>181</v>
@@ -6331,12 +6329,12 @@
         <v>450</v>
       </c>
       <c r="D134" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B135" t="s">
         <v>181</v>
@@ -6345,12 +6343,12 @@
         <v>452</v>
       </c>
       <c r="D135" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B136" t="s">
         <v>181</v>
@@ -6359,12 +6357,12 @@
         <v>459</v>
       </c>
       <c r="D136" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B137" t="s">
         <v>181</v>
@@ -6373,12 +6371,12 @@
         <v>461</v>
       </c>
       <c r="D137" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B138" t="s">
         <v>181</v>
@@ -6387,12 +6385,12 @@
         <v>465</v>
       </c>
       <c r="D138" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B139" t="s">
         <v>181</v>
@@ -6401,12 +6399,12 @@
         <v>467</v>
       </c>
       <c r="D139" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B140" t="s">
         <v>181</v>
@@ -6415,12 +6413,12 @@
         <v>450</v>
       </c>
       <c r="D140" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B141" t="s">
         <v>181</v>
@@ -6429,12 +6427,12 @@
         <v>452</v>
       </c>
       <c r="D141" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B142" t="s">
         <v>181</v>
@@ -6443,12 +6441,12 @@
         <v>450</v>
       </c>
       <c r="D142" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B143" t="s">
         <v>181</v>
@@ -6457,12 +6455,12 @@
         <v>452</v>
       </c>
       <c r="D143" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B144" t="s">
         <v>181</v>
@@ -6471,12 +6469,12 @@
         <v>450</v>
       </c>
       <c r="D144" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B145" t="s">
         <v>181</v>
@@ -6485,12 +6483,12 @@
         <v>452</v>
       </c>
       <c r="D145" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B146" t="s">
         <v>181</v>
@@ -6499,12 +6497,12 @@
         <v>459</v>
       </c>
       <c r="D146" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B147" t="s">
         <v>181</v>
@@ -6513,12 +6511,12 @@
         <v>461</v>
       </c>
       <c r="D147" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B148" t="s">
         <v>181</v>
@@ -6527,12 +6525,12 @@
         <v>459</v>
       </c>
       <c r="D148" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B149" t="s">
         <v>181</v>
@@ -6541,12 +6539,12 @@
         <v>461</v>
       </c>
       <c r="D149" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B150" t="s">
         <v>181</v>
@@ -6555,12 +6553,12 @@
         <v>465</v>
       </c>
       <c r="D150" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B151" t="s">
         <v>181</v>
@@ -6569,12 +6567,12 @@
         <v>467</v>
       </c>
       <c r="D151" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B152" t="s">
         <v>181</v>
@@ -6583,12 +6581,12 @@
         <v>450</v>
       </c>
       <c r="D152" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B153" t="s">
         <v>181</v>
@@ -6597,12 +6595,12 @@
         <v>452</v>
       </c>
       <c r="D153" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B154" t="s">
         <v>181</v>
@@ -6611,12 +6609,12 @@
         <v>450</v>
       </c>
       <c r="D154" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B155" t="s">
         <v>181</v>
@@ -6625,12 +6623,12 @@
         <v>452</v>
       </c>
       <c r="D155" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B156" t="s">
         <v>181</v>
@@ -6639,12 +6637,12 @@
         <v>450</v>
       </c>
       <c r="D156" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B157" t="s">
         <v>181</v>
@@ -6653,12 +6651,12 @@
         <v>452</v>
       </c>
       <c r="D157" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B158" t="s">
         <v>181</v>
@@ -6667,12 +6665,12 @@
         <v>459</v>
       </c>
       <c r="D158" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B159" t="s">
         <v>181</v>
@@ -6681,12 +6679,12 @@
         <v>461</v>
       </c>
       <c r="D159" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B160" t="s">
         <v>181</v>
@@ -6695,12 +6693,12 @@
         <v>459</v>
       </c>
       <c r="D160" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B161" t="s">
         <v>181</v>
@@ -6709,12 +6707,12 @@
         <v>461</v>
       </c>
       <c r="D161" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B162" t="s">
         <v>181</v>
@@ -6723,12 +6721,12 @@
         <v>450</v>
       </c>
       <c r="D162" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B163" t="s">
         <v>181</v>
@@ -6737,12 +6735,12 @@
         <v>452</v>
       </c>
       <c r="D163" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B164" t="s">
         <v>181</v>
@@ -6751,12 +6749,12 @@
         <v>450</v>
       </c>
       <c r="D164" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B165" t="s">
         <v>181</v>
@@ -6765,12 +6763,12 @@
         <v>452</v>
       </c>
       <c r="D165" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B166" t="s">
         <v>181</v>
@@ -6779,12 +6777,12 @@
         <v>450</v>
       </c>
       <c r="D166" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B167" t="s">
         <v>181</v>
@@ -6793,12 +6791,12 @@
         <v>452</v>
       </c>
       <c r="D167" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B168" t="s">
         <v>181</v>
@@ -6807,12 +6805,12 @@
         <v>450</v>
       </c>
       <c r="D168" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B169" t="s">
         <v>181</v>
@@ -6821,12 +6819,12 @@
         <v>452</v>
       </c>
       <c r="D169" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B170" t="s">
         <v>181</v>
@@ -6835,12 +6833,12 @@
         <v>459</v>
       </c>
       <c r="D170" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B171" t="s">
         <v>181</v>
@@ -6849,12 +6847,12 @@
         <v>461</v>
       </c>
       <c r="D171" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B172" t="s">
         <v>181</v>
@@ -6863,12 +6861,12 @@
         <v>459</v>
       </c>
       <c r="D172" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B173" t="s">
         <v>181</v>
@@ -6877,12 +6875,12 @@
         <v>461</v>
       </c>
       <c r="D173" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B174" t="s">
         <v>181</v>
@@ -6891,12 +6889,12 @@
         <v>450</v>
       </c>
       <c r="D174" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B175" t="s">
         <v>181</v>
@@ -6905,12 +6903,12 @@
         <v>452</v>
       </c>
       <c r="D175" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B176" t="s">
         <v>181</v>
@@ -6919,12 +6917,12 @@
         <v>465</v>
       </c>
       <c r="D176" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B177" t="s">
         <v>181</v>
@@ -6933,12 +6931,12 @@
         <v>467</v>
       </c>
       <c r="D177" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B178" t="s">
         <v>181</v>
@@ -6947,12 +6945,12 @@
         <v>450</v>
       </c>
       <c r="D178" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B179" t="s">
         <v>181</v>
@@ -6961,12 +6959,12 @@
         <v>452</v>
       </c>
       <c r="D179" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -6975,12 +6973,12 @@
         <v>459</v>
       </c>
       <c r="D180" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B181" t="s">
         <v>181</v>
@@ -6989,12 +6987,12 @@
         <v>461</v>
       </c>
       <c r="D181" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B182" t="s">
         <v>181</v>
@@ -7003,12 +7001,12 @@
         <v>459</v>
       </c>
       <c r="D182" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B183" t="s">
         <v>181</v>
@@ -7017,12 +7015,12 @@
         <v>461</v>
       </c>
       <c r="D183" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B184" t="s">
         <v>181</v>
@@ -7031,12 +7029,12 @@
         <v>450</v>
       </c>
       <c r="D184" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B185" t="s">
         <v>181</v>
@@ -7045,12 +7043,12 @@
         <v>452</v>
       </c>
       <c r="D185" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B186" t="s">
         <v>181</v>
@@ -7059,12 +7057,12 @@
         <v>450</v>
       </c>
       <c r="D186" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B187" t="s">
         <v>181</v>
@@ -7073,12 +7071,12 @@
         <v>452</v>
       </c>
       <c r="D187" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B188" t="s">
         <v>181</v>
@@ -7087,12 +7085,12 @@
         <v>450</v>
       </c>
       <c r="D188" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B189" t="s">
         <v>181</v>
@@ -7101,12 +7099,12 @@
         <v>452</v>
       </c>
       <c r="D189" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B190" t="s">
         <v>181</v>
@@ -7115,12 +7113,12 @@
         <v>450</v>
       </c>
       <c r="D190" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B191" t="s">
         <v>181</v>
@@ -7129,12 +7127,12 @@
         <v>452</v>
       </c>
       <c r="D191" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B192" t="s">
         <v>181</v>
@@ -7143,12 +7141,12 @@
         <v>459</v>
       </c>
       <c r="D192" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B193" t="s">
         <v>181</v>
@@ -7157,12 +7155,12 @@
         <v>461</v>
       </c>
       <c r="D193" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B194" t="s">
         <v>181</v>
@@ -7171,12 +7169,12 @@
         <v>459</v>
       </c>
       <c r="D194" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B195" t="s">
         <v>181</v>
@@ -7185,12 +7183,12 @@
         <v>461</v>
       </c>
       <c r="D195" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B196" t="s">
         <v>181</v>
@@ -7199,12 +7197,12 @@
         <v>465</v>
       </c>
       <c r="D196" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B197" t="s">
         <v>181</v>
@@ -7213,12 +7211,12 @@
         <v>467</v>
       </c>
       <c r="D197" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B198" t="s">
         <v>181</v>
@@ -7227,12 +7225,12 @@
         <v>450</v>
       </c>
       <c r="D198" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B199" t="s">
         <v>181</v>
@@ -7241,12 +7239,12 @@
         <v>452</v>
       </c>
       <c r="D199" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B200" t="s">
         <v>181</v>
@@ -7255,12 +7253,12 @@
         <v>450</v>
       </c>
       <c r="D200" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B201" t="s">
         <v>181</v>
@@ -7269,12 +7267,12 @@
         <v>452</v>
       </c>
       <c r="D201" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B202" t="s">
         <v>181</v>
@@ -7283,12 +7281,12 @@
         <v>450</v>
       </c>
       <c r="D202" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B203" t="s">
         <v>181</v>
@@ -7297,12 +7295,12 @@
         <v>452</v>
       </c>
       <c r="D203" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B204" t="s">
         <v>181</v>
@@ -7311,12 +7309,12 @@
         <v>450</v>
       </c>
       <c r="D204" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B205" t="s">
         <v>181</v>
@@ -7325,12 +7323,12 @@
         <v>452</v>
       </c>
       <c r="D205" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B206" t="s">
         <v>181</v>
@@ -7339,12 +7337,12 @@
         <v>459</v>
       </c>
       <c r="D206" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B207" t="s">
         <v>181</v>
@@ -7353,12 +7351,12 @@
         <v>461</v>
       </c>
       <c r="D207" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B208" t="s">
         <v>181</v>
@@ -7367,12 +7365,12 @@
         <v>459</v>
       </c>
       <c r="D208" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B209" t="s">
         <v>181</v>
@@ -7381,12 +7379,12 @@
         <v>461</v>
       </c>
       <c r="D209" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B210" t="s">
         <v>181</v>
@@ -7395,12 +7393,12 @@
         <v>450</v>
       </c>
       <c r="D210" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B211" t="s">
         <v>181</v>
@@ -7409,12 +7407,12 @@
         <v>452</v>
       </c>
       <c r="D211" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B212" t="s">
         <v>181</v>
@@ -7423,12 +7421,12 @@
         <v>450</v>
       </c>
       <c r="D212" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B213" t="s">
         <v>181</v>
@@ -7437,12 +7435,12 @@
         <v>452</v>
       </c>
       <c r="D213" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B214" t="s">
         <v>181</v>
@@ -7451,12 +7449,12 @@
         <v>455</v>
       </c>
       <c r="D214" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B215" t="s">
         <v>181</v>
@@ -7465,12 +7463,12 @@
         <v>457</v>
       </c>
       <c r="D215" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B216" t="s">
         <v>181</v>
@@ -7479,12 +7477,12 @@
         <v>459</v>
       </c>
       <c r="D216" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B217" t="s">
         <v>181</v>
@@ -7493,12 +7491,12 @@
         <v>461</v>
       </c>
       <c r="D217" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B218" t="s">
         <v>181</v>
@@ -7507,12 +7505,12 @@
         <v>459</v>
       </c>
       <c r="D218" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B219" t="s">
         <v>181</v>
@@ -7521,12 +7519,12 @@
         <v>461</v>
       </c>
       <c r="D219" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B220" t="s">
         <v>181</v>
@@ -7535,12 +7533,12 @@
         <v>450</v>
       </c>
       <c r="D220" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B221" t="s">
         <v>181</v>
@@ -7549,12 +7547,12 @@
         <v>452</v>
       </c>
       <c r="D221" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B222" t="s">
         <v>181</v>
@@ -7563,12 +7561,12 @@
         <v>450</v>
       </c>
       <c r="D222" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B223" t="s">
         <v>181</v>
@@ -7577,12 +7575,12 @@
         <v>452</v>
       </c>
       <c r="D223" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B224" t="s">
         <v>181</v>
@@ -7591,12 +7589,12 @@
         <v>450</v>
       </c>
       <c r="D224" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B225" t="s">
         <v>181</v>
@@ -7605,12 +7603,12 @@
         <v>452</v>
       </c>
       <c r="D225" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B226" t="s">
         <v>181</v>
@@ -7619,12 +7617,12 @@
         <v>455</v>
       </c>
       <c r="D226" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B227" t="s">
         <v>181</v>
@@ -7633,12 +7631,12 @@
         <v>457</v>
       </c>
       <c r="D227" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B228" t="s">
         <v>181</v>
@@ -7647,12 +7645,12 @@
         <v>450</v>
       </c>
       <c r="D228" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B229" t="s">
         <v>181</v>
@@ -7661,12 +7659,12 @@
         <v>452</v>
       </c>
       <c r="D229" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B230" t="s">
         <v>181</v>
@@ -7675,12 +7673,12 @@
         <v>459</v>
       </c>
       <c r="D230" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B231" t="s">
         <v>181</v>
@@ -7689,12 +7687,12 @@
         <v>461</v>
       </c>
       <c r="D231" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B232" t="s">
         <v>181</v>
@@ -7703,12 +7701,12 @@
         <v>465</v>
       </c>
       <c r="D232" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B233" t="s">
         <v>181</v>
@@ -7717,12 +7715,12 @@
         <v>467</v>
       </c>
       <c r="D233" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B234" t="s">
         <v>181</v>
@@ -7731,12 +7729,12 @@
         <v>450</v>
       </c>
       <c r="D234" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B235" t="s">
         <v>181</v>
@@ -7745,12 +7743,12 @@
         <v>452</v>
       </c>
       <c r="D235" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B236" t="s">
         <v>181</v>
@@ -7759,12 +7757,12 @@
         <v>450</v>
       </c>
       <c r="D236" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B237" t="s">
         <v>181</v>
@@ -7773,12 +7771,12 @@
         <v>452</v>
       </c>
       <c r="D237" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B238" t="s">
         <v>181</v>
@@ -7787,12 +7785,12 @@
         <v>455</v>
       </c>
       <c r="D238" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B239" t="s">
         <v>181</v>
@@ -7801,12 +7799,12 @@
         <v>457</v>
       </c>
       <c r="D239" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B240" t="s">
         <v>181</v>
@@ -7815,12 +7813,12 @@
         <v>459</v>
       </c>
       <c r="D240" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B241" t="s">
         <v>181</v>
@@ -7829,12 +7827,12 @@
         <v>461</v>
       </c>
       <c r="D241" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B242" t="s">
         <v>181</v>
@@ -7843,12 +7841,12 @@
         <v>450</v>
       </c>
       <c r="D242" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B243" t="s">
         <v>181</v>
@@ -7857,12 +7855,12 @@
         <v>452</v>
       </c>
       <c r="D243" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B244" t="s">
         <v>181</v>
@@ -7871,12 +7869,12 @@
         <v>459</v>
       </c>
       <c r="D244" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B245" t="s">
         <v>181</v>
@@ -7885,12 +7883,12 @@
         <v>461</v>
       </c>
       <c r="D245" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B246" t="s">
         <v>181</v>
@@ -7899,12 +7897,12 @@
         <v>459</v>
       </c>
       <c r="D246" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B247" t="s">
         <v>181</v>
@@ -7913,12 +7911,12 @@
         <v>461</v>
       </c>
       <c r="D247" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B248" t="s">
         <v>181</v>
@@ -7927,12 +7925,12 @@
         <v>465</v>
       </c>
       <c r="D248" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B249" t="s">
         <v>181</v>
@@ -7941,12 +7939,12 @@
         <v>467</v>
       </c>
       <c r="D249" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B250" t="s">
         <v>181</v>
@@ -7955,12 +7953,12 @@
         <v>450</v>
       </c>
       <c r="D250" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B251" t="s">
         <v>181</v>
@@ -7969,12 +7967,12 @@
         <v>452</v>
       </c>
       <c r="D251" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B252" t="s">
         <v>181</v>
@@ -7983,12 +7981,12 @@
         <v>450</v>
       </c>
       <c r="D252" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B253" t="s">
         <v>181</v>
@@ -7997,12 +7995,12 @@
         <v>452</v>
       </c>
       <c r="D253" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B254" t="s">
         <v>181</v>
@@ -8011,12 +8009,12 @@
         <v>450</v>
       </c>
       <c r="D254" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B255" t="s">
         <v>181</v>
@@ -8025,12 +8023,12 @@
         <v>452</v>
       </c>
       <c r="D255" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B256" t="s">
         <v>181</v>
@@ -8039,12 +8037,12 @@
         <v>455</v>
       </c>
       <c r="D256" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B257" t="s">
         <v>181</v>
@@ -8053,12 +8051,12 @@
         <v>457</v>
       </c>
       <c r="D257" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B258" t="s">
         <v>181</v>
@@ -8067,12 +8065,12 @@
         <v>450</v>
       </c>
       <c r="D258" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B259" t="s">
         <v>181</v>
@@ -8081,12 +8079,12 @@
         <v>452</v>
       </c>
       <c r="D259" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B260" t="s">
         <v>181</v>
@@ -8095,12 +8093,12 @@
         <v>450</v>
       </c>
       <c r="D260" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B261" t="s">
         <v>181</v>
@@ -8109,12 +8107,12 @@
         <v>452</v>
       </c>
       <c r="D261" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B262" t="s">
         <v>181</v>
@@ -8123,12 +8121,12 @@
         <v>450</v>
       </c>
       <c r="D262" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B263" t="s">
         <v>181</v>
@@ -8137,12 +8135,12 @@
         <v>452</v>
       </c>
       <c r="D263" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B264" t="s">
         <v>181</v>
@@ -8151,12 +8149,12 @@
         <v>455</v>
       </c>
       <c r="D264" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B265" t="s">
         <v>181</v>
@@ -8165,7 +8163,7 @@
         <v>457</v>
       </c>
       <c r="D265" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -8206,7 +8204,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s">
         <v>168</v>
@@ -8215,12 +8213,12 @@
         <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B3" t="s">
         <v>168</v>
@@ -8229,40 +8227,40 @@
         <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B4" t="s">
         <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B5" t="s">
         <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B6" t="s">
         <v>168</v>
@@ -8271,12 +8269,12 @@
         <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -8285,404 +8283,404 @@
         <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B9" t="s">
         <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
         <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B11" t="s">
         <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B12" t="s">
         <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>638</v>
       </c>
       <c r="D12" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B13" t="s">
         <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>640</v>
       </c>
       <c r="D13" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B14" t="s">
         <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B15" t="s">
         <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B16" t="s">
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B17" t="s">
         <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B18" t="s">
         <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>639</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B19" t="s">
         <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>641</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B20" t="s">
         <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B21" t="s">
         <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B22" t="s">
         <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B23" t="s">
         <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B24" t="s">
         <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B25" t="s">
         <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B26" t="s">
         <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>638</v>
       </c>
       <c r="D26" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B27" t="s">
         <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>640</v>
       </c>
       <c r="D27" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B28" t="s">
         <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B29" t="s">
         <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B30" t="s">
         <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B31" t="s">
         <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="B32" t="s">
         <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>639</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="B33" t="s">
         <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>641</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="B34" t="s">
         <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D34" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="B35" t="s">
         <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="B36" t="s">
         <v>168</v>
@@ -8691,12 +8689,12 @@
         <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="B37" t="s">
         <v>168</v>
@@ -8705,12 +8703,12 @@
         <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B38" t="s">
         <v>168</v>
@@ -8719,12 +8717,12 @@
         <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B39" t="s">
         <v>168</v>
@@ -8733,40 +8731,40 @@
         <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B40" t="s">
         <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B41" t="s">
         <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B42" t="s">
         <v>168</v>
@@ -8775,12 +8773,12 @@
         <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B43" t="s">
         <v>168</v>
@@ -8789,40 +8787,40 @@
         <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B44" t="s">
         <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B45" t="s">
         <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B46" t="s">
         <v>168</v>
@@ -8831,12 +8829,12 @@
         <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B47" t="s">
         <v>168</v>
@@ -8845,152 +8843,152 @@
         <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B48" t="s">
         <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>662</v>
       </c>
       <c r="D48" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B49" t="s">
         <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>664</v>
       </c>
       <c r="D49" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B50" t="s">
         <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>663</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>665</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B57" t="s">
         <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B58" t="s">
         <v>181</v>
@@ -8999,12 +8997,12 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B59" t="s">
         <v>181</v>
@@ -9013,40 +9011,40 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B60" t="s">
         <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B61" t="s">
         <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B62" t="s">
         <v>181</v>
@@ -9055,12 +9053,12 @@
         <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B63" t="s">
         <v>181</v>
@@ -9069,40 +9067,40 @@
         <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B64" t="s">
         <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B65" t="s">
         <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B66" t="s">
         <v>181</v>
@@ -9111,12 +9109,12 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B67" t="s">
         <v>181</v>
@@ -9125,124 +9123,124 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B68" t="s">
         <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B69" t="s">
         <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B70" t="s">
         <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B71" t="s">
         <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B72" t="s">
         <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B73" t="s">
         <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D73" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B74" t="s">
         <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B75" t="s">
         <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B76" t="s">
         <v>181</v>
@@ -9251,12 +9249,12 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B77" t="s">
         <v>181</v>
@@ -9265,68 +9263,68 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B78" t="s">
         <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="D78" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B79" t="s">
         <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B80" t="s">
         <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B81" t="s">
         <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B82" t="s">
         <v>181</v>
@@ -9335,12 +9333,12 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B83" t="s">
         <v>181</v>
@@ -9349,68 +9347,68 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B84" t="s">
         <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="D84" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B85" t="s">
         <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="D85" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B86" t="s">
         <v>181</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D86" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B87" t="s">
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D87" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B88" t="s">
         <v>181</v>
@@ -9419,12 +9417,12 @@
         <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B89" t="s">
         <v>181</v>
@@ -9433,12 +9431,12 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B90" t="s">
         <v>181</v>
@@ -9447,12 +9445,12 @@
         <v>145</v>
       </c>
       <c r="D90" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B91" t="s">
         <v>181</v>
@@ -9461,96 +9459,96 @@
         <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>588</v>
       </c>
       <c r="D94" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>590</v>
       </c>
       <c r="D95" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="D97" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -9559,12 +9557,12 @@
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -9573,12 +9571,12 @@
         <v>286</v>
       </c>
       <c r="D99" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -9587,12 +9585,12 @@
         <v>588</v>
       </c>
       <c r="D100" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -9601,12 +9599,12 @@
         <v>590</v>
       </c>
       <c r="D101" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -9615,12 +9613,12 @@
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -9629,40 +9627,40 @@
         <v>286</v>
       </c>
       <c r="D103" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="D104" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>590</v>
       </c>
       <c r="D105" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -9671,12 +9669,12 @@
         <v>588</v>
       </c>
       <c r="D106" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -9685,12 +9683,12 @@
         <v>590</v>
       </c>
       <c r="D107" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -9699,12 +9697,12 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -9713,68 +9711,68 @@
         <v>286</v>
       </c>
       <c r="D109" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>590</v>
+        <v>286</v>
       </c>
       <c r="D111" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>590</v>
+        <v>286</v>
       </c>
       <c r="D113" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -9783,12 +9781,12 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -9797,180 +9795,180 @@
         <v>286</v>
       </c>
       <c r="D115" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="D116" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>286</v>
+        <v>590</v>
       </c>
       <c r="D117" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="D118" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>590</v>
       </c>
       <c r="D119" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>712</v>
       </c>
       <c r="D120" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>286</v>
+        <v>714</v>
       </c>
       <c r="D121" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>590</v>
+        <v>286</v>
       </c>
       <c r="D123" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>590</v>
+        <v>286</v>
       </c>
       <c r="D125" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>713</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>715</v>
+        <v>286</v>
       </c>
       <c r="D127" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -9979,12 +9977,12 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -9993,460 +9991,460 @@
         <v>286</v>
       </c>
       <c r="D129" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="D130" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>286</v>
+        <v>590</v>
       </c>
       <c r="D131" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="D132" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>286</v>
+        <v>590</v>
       </c>
       <c r="D133" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>712</v>
       </c>
       <c r="D134" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>286</v>
+        <v>714</v>
       </c>
       <c r="D135" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>590</v>
+        <v>286</v>
       </c>
       <c r="D137" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>590</v>
+        <v>286</v>
       </c>
       <c r="D139" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>713</v>
+        <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>715</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D146" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D147" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D148" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D149" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="D150" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D151" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D158" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D159" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D160" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D161" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -10455,12 +10453,12 @@
         <v>20</v>
       </c>
       <c r="D162" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -10469,68 +10467,68 @@
         <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
       </c>
       <c r="C164" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -10539,12 +10537,12 @@
         <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -10553,12 +10551,12 @@
         <v>11</v>
       </c>
       <c r="D169" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -10567,12 +10565,12 @@
         <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -10581,12 +10579,12 @@
         <v>11</v>
       </c>
       <c r="D171" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -10595,12 +10593,12 @@
         <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -10609,264 +10607,264 @@
         <v>11</v>
       </c>
       <c r="D173" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D174" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D175" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D176" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D177" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D178" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D179" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="D180" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D181" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D182" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D183" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D184" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D185" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="D187" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D188" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D189" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D190" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D191" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B192" t="s">
         <v>10</v>
@@ -10875,12 +10873,12 @@
         <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
@@ -10889,68 +10887,68 @@
         <v>11</v>
       </c>
       <c r="D193" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D195" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B196" t="s">
         <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D196" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D197" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
@@ -10959,12 +10957,12 @@
         <v>20</v>
       </c>
       <c r="D198" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
@@ -10973,40 +10971,40 @@
         <v>11</v>
       </c>
       <c r="D199" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B200" t="s">
         <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D200" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D201" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
@@ -11015,12 +11013,12 @@
         <v>145</v>
       </c>
       <c r="D202" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
@@ -11029,12 +11027,12 @@
         <v>147</v>
       </c>
       <c r="D203" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B204" t="s">
         <v>10</v>
@@ -11043,12 +11041,12 @@
         <v>20</v>
       </c>
       <c r="D204" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B205" t="s">
         <v>10</v>
@@ -11057,12 +11055,12 @@
         <v>11</v>
       </c>
       <c r="D205" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B206" t="s">
         <v>10</v>
@@ -11071,12 +11069,12 @@
         <v>20</v>
       </c>
       <c r="D206" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
@@ -11085,40 +11083,40 @@
         <v>11</v>
       </c>
       <c r="D207" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B208" t="s">
         <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D208" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B209" t="s">
         <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D209" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B210" t="s">
         <v>10</v>
@@ -11127,12 +11125,12 @@
         <v>20</v>
       </c>
       <c r="D210" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B211" t="s">
         <v>10</v>
@@ -11141,12 +11139,12 @@
         <v>11</v>
       </c>
       <c r="D211" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
@@ -11155,12 +11153,12 @@
         <v>145</v>
       </c>
       <c r="D212" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
@@ -11169,264 +11167,264 @@
         <v>147</v>
       </c>
       <c r="D213" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>763</v>
+        <v>1009</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="C214" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D214" t="s">
-        <v>768</v>
+        <v>629</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>763</v>
+        <v>1009</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="C215" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D215" t="s">
-        <v>768</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>763</v>
+        <v>1009</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="D216" t="s">
-        <v>769</v>
+        <v>630</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>763</v>
+        <v>1009</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="D217" t="s">
-        <v>769</v>
+        <v>630</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>770</v>
+        <v>1009</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="D218" t="s">
-        <v>771</v>
+        <v>631</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>770</v>
+        <v>1009</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="C219" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="D219" t="s">
-        <v>771</v>
+        <v>631</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B220" t="s">
         <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D220" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D221" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D222" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D223" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B224" t="s">
         <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="D224" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
       </c>
       <c r="C225" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D225" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B226" t="s">
         <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B227" t="s">
         <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D227" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B228" t="s">
         <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B230" t="s">
         <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="D230" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B231" t="s">
         <v>10</v>
       </c>
       <c r="C231" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="D231" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B232" t="s">
         <v>10</v>
@@ -11435,12 +11433,12 @@
         <v>13</v>
       </c>
       <c r="D232" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B233" t="s">
         <v>10</v>
@@ -11449,12 +11447,12 @@
         <v>15</v>
       </c>
       <c r="D233" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B234" t="s">
         <v>10</v>
@@ -11463,12 +11461,12 @@
         <v>20</v>
       </c>
       <c r="D234" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B235" t="s">
         <v>10</v>
@@ -11477,12 +11475,12 @@
         <v>11</v>
       </c>
       <c r="D235" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B236" t="s">
         <v>10</v>
@@ -11491,12 +11489,12 @@
         <v>20</v>
       </c>
       <c r="D236" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B237" t="s">
         <v>10</v>
@@ -11505,236 +11503,236 @@
         <v>11</v>
       </c>
       <c r="D237" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B238" t="s">
         <v>10</v>
       </c>
       <c r="C238" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B239" t="s">
         <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D239" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B240" t="s">
         <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D240" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B241" t="s">
         <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D241" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B242" t="s">
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D242" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D243" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B244" t="s">
         <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="D244" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B245" t="s">
         <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="D245" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B246" t="s">
         <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D246" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D247" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D248" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D249" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="D250" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="D251" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D252" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="B253" t="s">
         <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D253" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="B254" t="s">
         <v>7</v>
@@ -11743,12 +11741,12 @@
         <v>20</v>
       </c>
       <c r="D254" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -11757,124 +11755,124 @@
         <v>11</v>
       </c>
       <c r="D255" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B256" t="s">
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D256" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D257" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D258" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D259" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D260" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D261" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D262" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D263" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -11883,12 +11881,12 @@
         <v>20</v>
       </c>
       <c r="D264" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -11897,96 +11895,96 @@
         <v>11</v>
       </c>
       <c r="D265" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D266" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D267" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D268" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D269" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="D270" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D271" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B272" t="s">
         <v>7</v>
@@ -11995,12 +11993,12 @@
         <v>20</v>
       </c>
       <c r="D272" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B273" t="s">
         <v>7</v>
@@ -12009,152 +12007,152 @@
         <v>11</v>
       </c>
       <c r="D273" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B274" t="s">
         <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="D274" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B275" t="s">
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D275" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="D276" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D277" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>805</v>
+        <v>1010</v>
       </c>
       <c r="B278" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C278" t="s">
         <v>20</v>
       </c>
       <c r="D278" t="s">
-        <v>811</v>
+        <v>758</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>805</v>
+        <v>1010</v>
       </c>
       <c r="B279" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C279" t="s">
         <v>11</v>
       </c>
       <c r="D279" t="s">
-        <v>811</v>
+        <v>758</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>805</v>
+        <v>1010</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="D280" t="s">
-        <v>812</v>
+        <v>759</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>805</v>
+        <v>1010</v>
       </c>
       <c r="B281" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="D281" t="s">
-        <v>812</v>
+        <v>759</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>805</v>
+        <v>1010</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C282" t="s">
         <v>20</v>
       </c>
       <c r="D282" t="s">
-        <v>813</v>
+        <v>760</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>805</v>
+        <v>1010</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C283" t="s">
         <v>11</v>
       </c>
       <c r="D283" t="s">
-        <v>813</v>
+        <v>760</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B284" t="s">
         <v>7</v>
@@ -12163,12 +12161,12 @@
         <v>20</v>
       </c>
       <c r="D284" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
@@ -12177,12 +12175,12 @@
         <v>11</v>
       </c>
       <c r="D285" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
@@ -12191,12 +12189,12 @@
         <v>145</v>
       </c>
       <c r="D286" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -12205,12 +12203,12 @@
         <v>147</v>
       </c>
       <c r="D287" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -12219,12 +12217,12 @@
         <v>20</v>
       </c>
       <c r="D288" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -12233,12 +12231,12 @@
         <v>11</v>
       </c>
       <c r="D289" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -12247,12 +12245,12 @@
         <v>20</v>
       </c>
       <c r="D290" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -12261,12 +12259,12 @@
         <v>11</v>
       </c>
       <c r="D291" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -12275,12 +12273,12 @@
         <v>20</v>
       </c>
       <c r="D292" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -12289,12 +12287,12 @@
         <v>11</v>
       </c>
       <c r="D293" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -12303,12 +12301,12 @@
         <v>145</v>
       </c>
       <c r="D294" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -12317,12 +12315,12 @@
         <v>147</v>
       </c>
       <c r="D295" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -12331,12 +12329,12 @@
         <v>145</v>
       </c>
       <c r="D296" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -12345,12 +12343,12 @@
         <v>147</v>
       </c>
       <c r="D297" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -12359,12 +12357,12 @@
         <v>204</v>
       </c>
       <c r="D298" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -12373,12 +12371,12 @@
         <v>206</v>
       </c>
       <c r="D299" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -12387,12 +12385,12 @@
         <v>20</v>
       </c>
       <c r="D300" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -12401,12 +12399,12 @@
         <v>11</v>
       </c>
       <c r="D301" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
@@ -12415,12 +12413,12 @@
         <v>20</v>
       </c>
       <c r="D302" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B303" t="s">
         <v>7</v>
@@ -12429,12 +12427,12 @@
         <v>11</v>
       </c>
       <c r="D303" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -12443,12 +12441,12 @@
         <v>145</v>
       </c>
       <c r="D304" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
@@ -12457,12 +12455,12 @@
         <v>147</v>
       </c>
       <c r="D305" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -12471,12 +12469,12 @@
         <v>20</v>
       </c>
       <c r="D306" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
@@ -12485,12 +12483,12 @@
         <v>11</v>
       </c>
       <c r="D307" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B308" t="s">
         <v>7</v>
@@ -12499,12 +12497,12 @@
         <v>20</v>
       </c>
       <c r="D308" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -12513,12 +12511,12 @@
         <v>11</v>
       </c>
       <c r="D309" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
@@ -12527,12 +12525,12 @@
         <v>20</v>
       </c>
       <c r="D310" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
@@ -12541,12 +12539,12 @@
         <v>11</v>
       </c>
       <c r="D311" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B312" t="s">
         <v>7</v>
@@ -12555,12 +12553,12 @@
         <v>20</v>
       </c>
       <c r="D312" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B313" t="s">
         <v>7</v>
@@ -12569,12 +12567,12 @@
         <v>11</v>
       </c>
       <c r="D313" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -12583,12 +12581,12 @@
         <v>145</v>
       </c>
       <c r="D314" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B315" t="s">
         <v>7</v>
@@ -12597,12 +12595,12 @@
         <v>147</v>
       </c>
       <c r="D315" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
@@ -12611,12 +12609,12 @@
         <v>204</v>
       </c>
       <c r="D316" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -12625,12 +12623,12 @@
         <v>206</v>
       </c>
       <c r="D317" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -12639,12 +12637,12 @@
         <v>20</v>
       </c>
       <c r="D318" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -12653,12 +12651,12 @@
         <v>11</v>
       </c>
       <c r="D319" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -12667,12 +12665,12 @@
         <v>13</v>
       </c>
       <c r="D320" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -12681,12 +12679,12 @@
         <v>15</v>
       </c>
       <c r="D321" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -12695,12 +12693,12 @@
         <v>20</v>
       </c>
       <c r="D322" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -12709,12 +12707,12 @@
         <v>11</v>
       </c>
       <c r="D323" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -12723,12 +12721,12 @@
         <v>145</v>
       </c>
       <c r="D324" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -12737,12 +12735,12 @@
         <v>147</v>
       </c>
       <c r="D325" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -12751,12 +12749,12 @@
         <v>145</v>
       </c>
       <c r="D326" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -12765,12 +12763,12 @@
         <v>147</v>
       </c>
       <c r="D327" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -12779,12 +12777,12 @@
         <v>20</v>
       </c>
       <c r="D328" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -12793,12 +12791,12 @@
         <v>11</v>
       </c>
       <c r="D329" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -12807,12 +12805,12 @@
         <v>20</v>
       </c>
       <c r="D330" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -12821,12 +12819,12 @@
         <v>11</v>
       </c>
       <c r="D331" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B332" t="s">
         <v>7</v>
@@ -12835,12 +12833,12 @@
         <v>20</v>
       </c>
       <c r="D332" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B333" t="s">
         <v>7</v>
@@ -12849,12 +12847,12 @@
         <v>11</v>
       </c>
       <c r="D333" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B334" t="s">
         <v>7</v>
@@ -12863,12 +12861,12 @@
         <v>20</v>
       </c>
       <c r="D334" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B335" t="s">
         <v>7</v>
@@ -12877,12 +12875,12 @@
         <v>11</v>
       </c>
       <c r="D335" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B336" t="s">
         <v>7</v>
@@ -12891,12 +12889,12 @@
         <v>145</v>
       </c>
       <c r="D336" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B337" t="s">
         <v>7</v>
@@ -12905,12 +12903,12 @@
         <v>147</v>
       </c>
       <c r="D337" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B338" t="s">
         <v>7</v>
@@ -12919,12 +12917,12 @@
         <v>145</v>
       </c>
       <c r="D338" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B339" t="s">
         <v>7</v>
@@ -12933,12 +12931,12 @@
         <v>147</v>
       </c>
       <c r="D339" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B340" t="s">
         <v>7</v>
@@ -12947,12 +12945,12 @@
         <v>204</v>
       </c>
       <c r="D340" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B341" t="s">
         <v>7</v>
@@ -12961,12 +12959,12 @@
         <v>206</v>
       </c>
       <c r="D341" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B342" t="s">
         <v>7</v>
@@ -12975,12 +12973,12 @@
         <v>20</v>
       </c>
       <c r="D342" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B343" t="s">
         <v>7</v>
@@ -12989,7 +12987,7 @@
         <v>11</v>
       </c>
       <c r="D343" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>

--- a/直播源汇总文档/IPV6直播源汇总/移动ITV-域名版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/移动ITV-域名版.xlsx
@@ -4010,9 +4010,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -21009,31 +21011,31 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -21047,7 +21049,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -21061,7 +21063,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -21072,10 +21074,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -21086,10 +21088,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -21103,7 +21105,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -21117,7 +21119,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -21128,10 +21130,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -21142,10 +21144,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -21159,7 +21161,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -21173,63 +21175,63 @@
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>931</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>931</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -21240,10 +21242,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -21254,13 +21256,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -21268,10 +21270,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -21282,10 +21284,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -21299,7 +21301,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -21313,12 +21315,12 @@
         <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>932</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -21327,12 +21329,12 @@
         <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>932</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -21341,12 +21343,12 @@
         <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
@@ -21355,12 +21357,12 @@
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
@@ -21369,7 +21371,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">

--- a/直播源汇总文档/IPV6直播源汇总/移动ITV-域名版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/移动ITV-域名版.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">地方!$A$1:$D$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">湖南!$A$1:$D$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">上海!$A$1:$D$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">体育!$A$1:$D$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">体育!$A$1:$D$158</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$D$353</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">央视!$A$1:$D$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">娱乐!$A$1:$D$357</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5228" uniqueCount="992">
   <si>
     <t>,</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3495,114 +3495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咪视通-1</t>
-  </si>
-  <si>
-    <t>咪视通-2</t>
-  </si>
-  <si>
-    <t>咪视通-3</t>
-  </si>
-  <si>
-    <t>咪视通-4</t>
-  </si>
-  <si>
-    <t>咪视通-5</t>
-  </si>
-  <si>
-    <t>咪视通-6</t>
-  </si>
-  <si>
-    <t>咪视通-7</t>
-  </si>
-  <si>
-    <t>咪视通-8</t>
-  </si>
-  <si>
-    <t>咪视通-9</t>
-  </si>
-  <si>
-    <t>咪视通-10</t>
-  </si>
-  <si>
-    <t>咪视通-11</t>
-  </si>
-  <si>
-    <t>咪视通-12</t>
-  </si>
-  <si>
-    <t>咪视通-13</t>
-  </si>
-  <si>
-    <t>咪视通-14</t>
-  </si>
-  <si>
-    <t>咪视通-15</t>
-  </si>
-  <si>
-    <t>咪视通-16</t>
-  </si>
-  <si>
-    <t>咪视通-17</t>
-  </si>
-  <si>
-    <t>咪视通-18</t>
-  </si>
-  <si>
-    <t>咪视通-19</t>
-  </si>
-  <si>
-    <t>咪视通-20</t>
-  </si>
-  <si>
-    <t>咪视通-21</t>
-  </si>
-  <si>
-    <t>咪视通-22</t>
-  </si>
-  <si>
-    <t>咪视通-23</t>
-  </si>
-  <si>
-    <t>咪视通-24</t>
-  </si>
-  <si>
-    <t>咪视通-25</t>
-  </si>
-  <si>
-    <t>咪视通-26</t>
-  </si>
-  <si>
-    <t>咪视通-27</t>
-  </si>
-  <si>
-    <t>咪视通-28</t>
-  </si>
-  <si>
-    <t>咪视通-29</t>
-  </si>
-  <si>
-    <t>咪视通-30</t>
-  </si>
-  <si>
-    <t>咪视通-31</t>
-  </si>
-  <si>
-    <t>咪视通-33</t>
-  </si>
-  <si>
-    <t>咪视通-34</t>
-  </si>
-  <si>
-    <t>咪视通-35</t>
-  </si>
-  <si>
-    <t>咪视通-3D</t>
-  </si>
-  <si>
-    <t>咪视通-4K</t>
-  </si>
-  <si>
     <t>安多卫视</t>
   </si>
   <si>
@@ -3675,9 +3567,6 @@
     <t>百视通直播-20</t>
   </si>
   <si>
-    <t>咪视通-32</t>
-  </si>
-  <si>
     <t>乐游</t>
   </si>
   <si>
@@ -3837,20 +3726,6 @@
     <t>IHOT爱院线</t>
   </si>
   <si>
-    <t>咪视通-38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪视通-39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪视通-36</t>
-  </si>
-  <si>
-    <t>咪视通-37</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
@@ -3870,6 +3745,133 @@
   </si>
   <si>
     <t>id=3000000001000005969</t>
+  </si>
+  <si>
+    <t>咪视界-1</t>
+  </si>
+  <si>
+    <t>咪视界-2</t>
+  </si>
+  <si>
+    <t>咪视界-3</t>
+  </si>
+  <si>
+    <t>咪视界-4</t>
+  </si>
+  <si>
+    <t>咪视界-5</t>
+  </si>
+  <si>
+    <t>咪视界-6</t>
+  </si>
+  <si>
+    <t>咪视界-7</t>
+  </si>
+  <si>
+    <t>咪视界-8</t>
+  </si>
+  <si>
+    <t>咪视界-9</t>
+  </si>
+  <si>
+    <t>咪视界-10</t>
+  </si>
+  <si>
+    <t>咪视界-11</t>
+  </si>
+  <si>
+    <t>咪视界-12</t>
+  </si>
+  <si>
+    <t>咪视界-13</t>
+  </si>
+  <si>
+    <t>咪视界-14</t>
+  </si>
+  <si>
+    <t>咪视界-15</t>
+  </si>
+  <si>
+    <t>咪视界-16</t>
+  </si>
+  <si>
+    <t>咪视界-17</t>
+  </si>
+  <si>
+    <t>咪视界-18</t>
+  </si>
+  <si>
+    <t>咪视界-19</t>
+  </si>
+  <si>
+    <t>咪视界-20</t>
+  </si>
+  <si>
+    <t>咪视界-21</t>
+  </si>
+  <si>
+    <t>咪视界-22</t>
+  </si>
+  <si>
+    <t>咪视界-23</t>
+  </si>
+  <si>
+    <t>咪视界-24</t>
+  </si>
+  <si>
+    <t>咪视界-25</t>
+  </si>
+  <si>
+    <t>咪视界-26</t>
+  </si>
+  <si>
+    <t>咪视界-27</t>
+  </si>
+  <si>
+    <t>咪视界-28</t>
+  </si>
+  <si>
+    <t>咪视界-29</t>
+  </si>
+  <si>
+    <t>咪视界-30</t>
+  </si>
+  <si>
+    <t>咪视界-31</t>
+  </si>
+  <si>
+    <t>咪视界-32</t>
+  </si>
+  <si>
+    <t>咪视界-33</t>
+  </si>
+  <si>
+    <t>咪视界-34</t>
+  </si>
+  <si>
+    <t>咪视界-35</t>
+  </si>
+  <si>
+    <t>咪视界-36</t>
+  </si>
+  <si>
+    <t>咪视界-37</t>
+  </si>
+  <si>
+    <t>咪视界-38</t>
+  </si>
+  <si>
+    <t>咪视界-39</t>
+  </si>
+  <si>
+    <t>至臻视界</t>
+  </si>
+  <si>
+    <t>咪视界-4K-1</t>
+  </si>
+  <si>
+    <t>咪视界-4K-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4251,7 +4253,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
@@ -8005,7 +8007,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="B2" t="s">
         <v>98</v>
@@ -8019,7 +8021,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="B3" t="s">
         <v>98</v>
@@ -8033,7 +8035,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="B4" t="s">
         <v>98</v>
@@ -8047,7 +8049,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="B5" t="s">
         <v>98</v>
@@ -8061,7 +8063,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="B6" t="s">
         <v>98</v>
@@ -8075,7 +8077,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="B7" t="s">
         <v>98</v>
@@ -8565,7 +8567,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B42" t="s">
         <v>98</v>
@@ -8579,7 +8581,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
@@ -8593,7 +8595,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B44" t="s">
         <v>98</v>
@@ -8607,7 +8609,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B45" t="s">
         <v>98</v>
@@ -8621,7 +8623,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
@@ -8635,7 +8637,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B47" t="s">
         <v>98</v>
@@ -8649,7 +8651,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B48" t="s">
         <v>98</v>
@@ -8663,7 +8665,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
@@ -8677,7 +8679,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B50" t="s">
         <v>98</v>
@@ -8691,7 +8693,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
@@ -10777,7 +10779,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="B200" t="s">
         <v>9</v>
@@ -10791,7 +10793,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="B201" t="s">
         <v>9</v>
@@ -10805,7 +10807,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
@@ -10819,7 +10821,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="B203" t="s">
         <v>9</v>
@@ -10833,7 +10835,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
@@ -10847,7 +10849,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
@@ -11141,7 +11143,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>903</v>
+        <v>867</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -11155,7 +11157,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>903</v>
+        <v>867</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -11169,7 +11171,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>903</v>
+        <v>867</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -11183,7 +11185,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>903</v>
+        <v>867</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -13532,7 +13534,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -13546,7 +13548,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -13560,7 +13562,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -13574,7 +13576,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -13588,7 +13590,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -13602,7 +13604,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -13616,7 +13618,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -13630,7 +13632,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -15444,7 +15446,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15948,7 +15950,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>866</v>
+        <v>950</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
@@ -15962,7 +15964,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>866</v>
+        <v>950</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -15976,7 +15978,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>867</v>
+        <v>951</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
@@ -15990,7 +15992,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>867</v>
+        <v>951</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
@@ -16004,7 +16006,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>868</v>
+        <v>952</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
@@ -16018,7 +16020,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>868</v>
+        <v>952</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
@@ -16032,7 +16034,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>869</v>
+        <v>953</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
@@ -16046,7 +16048,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>869</v>
+        <v>953</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
@@ -16060,7 +16062,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>870</v>
+        <v>954</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
@@ -16074,7 +16076,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>870</v>
+        <v>954</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
@@ -16088,7 +16090,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>871</v>
+        <v>955</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
@@ -16102,7 +16104,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>871</v>
+        <v>955</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
@@ -16116,7 +16118,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>872</v>
+        <v>956</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
@@ -16130,7 +16132,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>872</v>
+        <v>956</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
@@ -16144,7 +16146,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>873</v>
+        <v>957</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
@@ -16158,7 +16160,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>873</v>
+        <v>957</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
@@ -16172,7 +16174,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>874</v>
+        <v>958</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
@@ -16186,7 +16188,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>874</v>
+        <v>958</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
@@ -16200,7 +16202,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>875</v>
+        <v>959</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
@@ -16214,7 +16216,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>875</v>
+        <v>959</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
@@ -16228,7 +16230,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>876</v>
+        <v>960</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
@@ -16242,7 +16244,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>876</v>
+        <v>960</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
@@ -16256,7 +16258,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>877</v>
+        <v>961</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
@@ -16270,7 +16272,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>877</v>
+        <v>961</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
@@ -16284,7 +16286,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>878</v>
+        <v>962</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
@@ -16298,7 +16300,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>878</v>
+        <v>962</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
@@ -16312,7 +16314,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>879</v>
+        <v>963</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
@@ -16326,7 +16328,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>879</v>
+        <v>963</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
@@ -16340,7 +16342,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>880</v>
+        <v>964</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
@@ -16354,7 +16356,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>880</v>
+        <v>964</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
@@ -16368,7 +16370,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>881</v>
+        <v>965</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
@@ -16382,7 +16384,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>881</v>
+        <v>965</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
@@ -16396,7 +16398,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>882</v>
+        <v>966</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
@@ -16410,7 +16412,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>882</v>
+        <v>966</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
@@ -16424,7 +16426,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
@@ -16438,7 +16440,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
@@ -16452,7 +16454,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>884</v>
+        <v>968</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
@@ -16466,7 +16468,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>884</v>
+        <v>968</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
@@ -16480,7 +16482,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>885</v>
+        <v>969</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
@@ -16494,7 +16496,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>885</v>
+        <v>969</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
@@ -16508,7 +16510,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>886</v>
+        <v>970</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
@@ -16522,7 +16524,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>886</v>
+        <v>970</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
@@ -16536,7 +16538,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>887</v>
+        <v>971</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
@@ -16550,7 +16552,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>887</v>
+        <v>971</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
@@ -16564,7 +16566,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>888</v>
+        <v>972</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>7</v>
@@ -16578,7 +16580,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>888</v>
+        <v>972</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>7</v>
@@ -16592,7 +16594,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>889</v>
+        <v>973</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
@@ -16606,7 +16608,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>889</v>
+        <v>973</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
@@ -16620,7 +16622,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>890</v>
+        <v>974</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
@@ -16634,7 +16636,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>890</v>
+        <v>974</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
@@ -16648,7 +16650,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>891</v>
+        <v>975</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
@@ -16662,7 +16664,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>891</v>
+        <v>975</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
@@ -16676,7 +16678,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>892</v>
+        <v>976</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
@@ -16690,7 +16692,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>892</v>
+        <v>976</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
@@ -16704,7 +16706,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>893</v>
+        <v>977</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
@@ -16718,7 +16720,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>893</v>
+        <v>977</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
@@ -16732,7 +16734,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>894</v>
+        <v>978</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
@@ -16746,7 +16748,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>894</v>
+        <v>978</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
@@ -16760,7 +16762,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>895</v>
+        <v>979</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
@@ -16774,7 +16776,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>895</v>
+        <v>979</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
@@ -16788,7 +16790,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>896</v>
+        <v>980</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
@@ -16802,7 +16804,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>896</v>
+        <v>980</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
@@ -16816,7 +16818,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>926</v>
+        <v>981</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
@@ -16830,7 +16832,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>926</v>
+        <v>981</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
@@ -16844,7 +16846,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>897</v>
+        <v>982</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>7</v>
@@ -16858,7 +16860,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>897</v>
+        <v>982</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>7</v>
@@ -16872,119 +16874,119 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>898</v>
+        <v>983</v>
       </c>
       <c r="B102" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="C102" t="s">
-        <v>985</v>
+        <v>944</v>
       </c>
       <c r="D102" t="s">
-        <v>986</v>
+        <v>945</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>898</v>
+        <v>983</v>
       </c>
       <c r="B103" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="C103" t="s">
-        <v>987</v>
+        <v>946</v>
       </c>
       <c r="D103" t="s">
-        <v>986</v>
+        <v>945</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>899</v>
+        <v>984</v>
       </c>
       <c r="B104" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="C104" t="s">
-        <v>985</v>
+        <v>944</v>
       </c>
       <c r="D104" t="s">
-        <v>988</v>
+        <v>947</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>899</v>
+        <v>984</v>
       </c>
       <c r="B105" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="C105" t="s">
-        <v>987</v>
+        <v>946</v>
       </c>
       <c r="D105" t="s">
-        <v>988</v>
+        <v>947</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B106" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="C106" t="s">
-        <v>985</v>
+        <v>944</v>
       </c>
       <c r="D106" t="s">
-        <v>989</v>
+        <v>948</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B107" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="C107" t="s">
-        <v>987</v>
+        <v>946</v>
       </c>
       <c r="D107" t="s">
-        <v>989</v>
+        <v>948</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B108" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="C108" t="s">
-        <v>985</v>
+        <v>944</v>
       </c>
       <c r="D108" t="s">
-        <v>990</v>
+        <v>949</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B109" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="C109" t="s">
-        <v>987</v>
+        <v>946</v>
       </c>
       <c r="D109" t="s">
-        <v>990</v>
+        <v>949</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
@@ -16998,7 +17000,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>7</v>
@@ -17012,7 +17014,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>7</v>
@@ -17026,7 +17028,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>900</v>
+        <v>989</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
@@ -17040,7 +17042,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>900</v>
+        <v>989</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>7</v>
@@ -17054,7 +17056,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>7</v>
@@ -17063,12 +17065,12 @@
         <v>13</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>7</v>
@@ -17077,12 +17079,12 @@
         <v>14</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>901</v>
+        <v>991</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
@@ -17091,12 +17093,12 @@
         <v>13</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>901</v>
+        <v>991</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>7</v>
@@ -17105,40 +17107,40 @@
         <v>14</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>901</v>
+        <v>870</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>901</v>
+        <v>870</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>906</v>
+        <v>871</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
@@ -17147,12 +17149,12 @@
         <v>11</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>906</v>
+        <v>871</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>7</v>
@@ -17161,12 +17163,12 @@
         <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
@@ -17175,12 +17177,12 @@
         <v>11</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>7</v>
@@ -17189,12 +17191,12 @@
         <v>12</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>908</v>
+        <v>873</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>7</v>
@@ -17203,12 +17205,12 @@
         <v>11</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>908</v>
+        <v>873</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>7</v>
@@ -17217,12 +17219,12 @@
         <v>12</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>909</v>
+        <v>874</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>7</v>
@@ -17231,12 +17233,12 @@
         <v>11</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>909</v>
+        <v>874</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>7</v>
@@ -17245,12 +17247,12 @@
         <v>12</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>910</v>
+        <v>875</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>7</v>
@@ -17259,12 +17261,12 @@
         <v>11</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>910</v>
+        <v>875</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>7</v>
@@ -17273,12 +17275,12 @@
         <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>911</v>
+        <v>876</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>7</v>
@@ -17287,12 +17289,12 @@
         <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>911</v>
+        <v>876</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
@@ -17301,12 +17303,12 @@
         <v>12</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>912</v>
+        <v>877</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>7</v>
@@ -17315,12 +17317,12 @@
         <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>912</v>
+        <v>877</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>7</v>
@@ -17329,12 +17331,12 @@
         <v>12</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>7</v>
@@ -17343,12 +17345,12 @@
         <v>11</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>7</v>
@@ -17357,12 +17359,12 @@
         <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>914</v>
+        <v>879</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>7</v>
@@ -17371,12 +17373,12 @@
         <v>11</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>914</v>
+        <v>879</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>7</v>
@@ -17385,40 +17387,40 @@
         <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>915</v>
+        <v>880</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>915</v>
+        <v>880</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>916</v>
+        <v>881</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>7</v>
@@ -17427,12 +17429,12 @@
         <v>84</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>916</v>
+        <v>881</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
@@ -17441,12 +17443,12 @@
         <v>86</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>917</v>
+        <v>882</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>7</v>
@@ -17455,12 +17457,12 @@
         <v>84</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>917</v>
+        <v>882</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>7</v>
@@ -17469,12 +17471,12 @@
         <v>86</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>918</v>
+        <v>883</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>7</v>
@@ -17483,12 +17485,12 @@
         <v>84</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>918</v>
+        <v>883</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>7</v>
@@ -17497,12 +17499,12 @@
         <v>86</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>919</v>
+        <v>884</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>7</v>
@@ -17511,12 +17513,12 @@
         <v>84</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>919</v>
+        <v>884</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>7</v>
@@ -17525,12 +17527,12 @@
         <v>86</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>920</v>
+        <v>885</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>7</v>
@@ -17539,12 +17541,12 @@
         <v>84</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>920</v>
+        <v>885</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>7</v>
@@ -17553,12 +17555,12 @@
         <v>86</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>921</v>
+        <v>886</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>7</v>
@@ -17567,12 +17569,12 @@
         <v>84</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>921</v>
+        <v>886</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>7</v>
@@ -17581,12 +17583,12 @@
         <v>86</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>922</v>
+        <v>887</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>7</v>
@@ -17595,12 +17597,12 @@
         <v>84</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>922</v>
+        <v>887</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>7</v>
@@ -17609,12 +17611,12 @@
         <v>86</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>923</v>
+        <v>888</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>7</v>
@@ -17623,12 +17625,12 @@
         <v>84</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>923</v>
+        <v>888</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>7</v>
@@ -17637,12 +17639,12 @@
         <v>86</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>924</v>
+        <v>889</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>7</v>
@@ -17651,12 +17653,12 @@
         <v>84</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>924</v>
+        <v>889</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>7</v>
@@ -17665,39 +17667,11 @@
         <v>86</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D159" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D160"/>
+  <autoFilter ref="A1:D158"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18350,7 +18324,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>960</v>
+        <v>923</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -18364,7 +18338,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>960</v>
+        <v>923</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -18378,7 +18352,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>960</v>
+        <v>923</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -18392,7 +18366,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>960</v>
+        <v>923</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -18406,7 +18380,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>961</v>
+        <v>924</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -18420,7 +18394,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>961</v>
+        <v>924</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -18434,7 +18408,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>961</v>
+        <v>924</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -18448,7 +18422,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>961</v>
+        <v>924</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -18462,7 +18436,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>962</v>
+        <v>925</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -18476,7 +18450,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>962</v>
+        <v>925</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -18490,7 +18464,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>962</v>
+        <v>925</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -18504,7 +18478,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>962</v>
+        <v>925</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -18518,7 +18492,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>963</v>
+        <v>926</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -18532,7 +18506,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>963</v>
+        <v>926</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -18546,7 +18520,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -18560,7 +18534,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -18574,7 +18548,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -18588,7 +18562,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -18602,7 +18576,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>965</v>
+        <v>928</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -18616,7 +18590,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>965</v>
+        <v>928</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -18630,7 +18604,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>965</v>
+        <v>928</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -18644,7 +18618,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>965</v>
+        <v>928</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -18658,7 +18632,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>966</v>
+        <v>929</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -18672,7 +18646,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>966</v>
+        <v>929</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -18686,7 +18660,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>966</v>
+        <v>929</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -18700,7 +18674,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>966</v>
+        <v>929</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -18714,7 +18688,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>967</v>
+        <v>930</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -18728,7 +18702,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>967</v>
+        <v>930</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -18742,7 +18716,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>967</v>
+        <v>930</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -18756,7 +18730,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>967</v>
+        <v>930</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -18770,7 +18744,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>968</v>
+        <v>931</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -18784,7 +18758,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>968</v>
+        <v>931</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -18798,7 +18772,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>968</v>
+        <v>931</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -18812,7 +18786,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>968</v>
+        <v>931</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -18826,7 +18800,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>969</v>
+        <v>932</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -18840,7 +18814,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>969</v>
+        <v>932</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -18854,7 +18828,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>969</v>
+        <v>932</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -18868,7 +18842,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>969</v>
+        <v>932</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -18882,7 +18856,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>970</v>
+        <v>933</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -18896,7 +18870,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>970</v>
+        <v>933</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -18910,7 +18884,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>970</v>
+        <v>933</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -18924,7 +18898,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>970</v>
+        <v>933</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -18938,7 +18912,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>971</v>
+        <v>934</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -18952,7 +18926,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>971</v>
+        <v>934</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -18966,7 +18940,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>971</v>
+        <v>934</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -18980,7 +18954,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>971</v>
+        <v>934</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -18994,7 +18968,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>972</v>
+        <v>935</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -19008,7 +18982,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>972</v>
+        <v>935</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -19022,7 +18996,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>972</v>
+        <v>935</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -19036,7 +19010,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>972</v>
+        <v>935</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -19050,7 +19024,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>973</v>
+        <v>936</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -19064,7 +19038,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>973</v>
+        <v>936</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -19078,7 +19052,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>973</v>
+        <v>936</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -19092,7 +19066,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>973</v>
+        <v>936</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -19106,7 +19080,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>974</v>
+        <v>937</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -19120,7 +19094,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>974</v>
+        <v>937</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -19134,7 +19108,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>974</v>
+        <v>937</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -19148,7 +19122,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>974</v>
+        <v>937</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -19162,7 +19136,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>975</v>
+        <v>938</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -19176,7 +19150,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>975</v>
+        <v>938</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -19190,7 +19164,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>975</v>
+        <v>938</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -19204,7 +19178,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>975</v>
+        <v>938</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -19218,7 +19192,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>976</v>
+        <v>939</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -19232,7 +19206,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>976</v>
+        <v>939</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -19246,7 +19220,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>976</v>
+        <v>939</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -19260,7 +19234,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>976</v>
+        <v>939</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -19274,7 +19248,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>977</v>
+        <v>940</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -19288,7 +19262,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>977</v>
+        <v>940</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -19302,7 +19276,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>977</v>
+        <v>940</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -19316,7 +19290,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>977</v>
+        <v>940</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -19330,7 +19304,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>978</v>
+        <v>941</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -19344,7 +19318,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>978</v>
+        <v>941</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -19358,7 +19332,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>978</v>
+        <v>941</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -19372,7 +19346,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>978</v>
+        <v>941</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -19386,7 +19360,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>979</v>
+        <v>942</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -19400,7 +19374,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>979</v>
+        <v>942</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -19414,7 +19388,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>979</v>
+        <v>942</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -19428,7 +19402,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>979</v>
+        <v>942</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -19442,7 +19416,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -19456,7 +19430,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -19470,7 +19444,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -19484,7 +19458,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -19498,7 +19472,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -19512,7 +19486,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -19526,7 +19500,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -19540,7 +19514,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -19554,7 +19528,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -19568,7 +19542,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -19582,7 +19556,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -19596,7 +19570,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -19610,7 +19584,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -19624,7 +19598,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -19638,7 +19612,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -19652,7 +19626,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -19666,7 +19640,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -19680,7 +19654,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -19694,7 +19668,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -19708,7 +19682,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -19722,7 +19696,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -19736,7 +19710,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -19750,7 +19724,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -19764,7 +19738,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -19778,7 +19752,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -19792,7 +19766,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -19806,7 +19780,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -19820,7 +19794,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="B151" t="s">
         <v>9</v>
@@ -19834,7 +19808,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -19848,7 +19822,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -19862,7 +19836,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -19876,7 +19850,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
@@ -19890,7 +19864,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
@@ -19904,7 +19878,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
@@ -19918,7 +19892,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
@@ -19932,7 +19906,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
@@ -19946,7 +19920,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -19960,7 +19934,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
@@ -19974,7 +19948,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -19988,7 +19962,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -20002,7 +19976,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
@@ -20016,7 +19990,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
@@ -20030,7 +20004,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
@@ -20044,7 +20018,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -20058,7 +20032,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -20072,7 +20046,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -20086,7 +20060,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -20100,7 +20074,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -20114,7 +20088,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -20128,7 +20102,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -20142,7 +20116,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -20156,7 +20130,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -20170,7 +20144,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -20184,7 +20158,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -20198,7 +20172,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -20212,7 +20186,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -20226,7 +20200,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>936</v>
+        <v>899</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -20240,7 +20214,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>936</v>
+        <v>899</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -20254,7 +20228,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>936</v>
+        <v>899</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
@@ -20268,7 +20242,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>936</v>
+        <v>899</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
@@ -20282,7 +20256,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
@@ -20296,7 +20270,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -20310,7 +20284,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
@@ -20324,7 +20298,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="B187" t="s">
         <v>7</v>
@@ -20338,7 +20312,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -20352,7 +20326,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
@@ -20366,7 +20340,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -20380,7 +20354,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -20394,7 +20368,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -20408,7 +20382,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -20422,7 +20396,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -20436,7 +20410,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -20450,7 +20424,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -20464,7 +20438,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -20478,7 +20452,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -20492,7 +20466,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -20506,7 +20480,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -20520,7 +20494,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -20534,7 +20508,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -20548,7 +20522,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -20562,7 +20536,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -20576,7 +20550,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -20590,7 +20564,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -20604,7 +20578,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -20618,7 +20592,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -20632,7 +20606,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -20646,7 +20620,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -20660,7 +20634,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -20674,7 +20648,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
@@ -20688,7 +20662,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
@@ -20702,7 +20676,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -20716,7 +20690,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -20730,7 +20704,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>943</v>
+        <v>906</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -20744,7 +20718,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>943</v>
+        <v>906</v>
       </c>
       <c r="B217" t="s">
         <v>7</v>
@@ -20758,7 +20732,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>943</v>
+        <v>906</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -20772,7 +20746,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>943</v>
+        <v>906</v>
       </c>
       <c r="B219" t="s">
         <v>7</v>
@@ -20786,7 +20760,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>943</v>
+        <v>906</v>
       </c>
       <c r="B220" t="s">
         <v>7</v>
@@ -20800,7 +20774,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>943</v>
+        <v>906</v>
       </c>
       <c r="B221" t="s">
         <v>7</v>
@@ -20814,7 +20788,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>944</v>
+        <v>907</v>
       </c>
       <c r="B222" t="s">
         <v>7</v>
@@ -20828,7 +20802,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>944</v>
+        <v>907</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -20842,7 +20816,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>944</v>
+        <v>907</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
@@ -20856,7 +20830,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>944</v>
+        <v>907</v>
       </c>
       <c r="B225" t="s">
         <v>7</v>
@@ -20870,7 +20844,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>944</v>
+        <v>907</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -20884,7 +20858,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>944</v>
+        <v>907</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -20898,7 +20872,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -20912,7 +20886,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -20926,7 +20900,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -20940,7 +20914,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -20954,7 +20928,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -20968,7 +20942,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -20982,7 +20956,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>946</v>
+        <v>909</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -20996,7 +20970,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>946</v>
+        <v>909</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -21010,7 +20984,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>946</v>
+        <v>909</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -21024,7 +20998,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>946</v>
+        <v>909</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -21038,7 +21012,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -21052,7 +21026,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -21066,7 +21040,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -21080,7 +21054,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -21094,7 +21068,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="B242" t="s">
         <v>7</v>
@@ -21108,7 +21082,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
@@ -21122,7 +21096,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
@@ -21136,7 +21110,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
@@ -21150,7 +21124,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="B246" t="s">
         <v>7</v>
@@ -21164,7 +21138,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
@@ -21178,7 +21152,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
       <c r="B248" t="s">
         <v>7</v>
@@ -21192,7 +21166,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
       <c r="B249" t="s">
         <v>7</v>
@@ -21206,7 +21180,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
       <c r="B250" t="s">
         <v>7</v>
@@ -21220,7 +21194,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
       <c r="B251" t="s">
         <v>7</v>
@@ -21234,7 +21208,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
       <c r="B252" t="s">
         <v>7</v>
@@ -21248,7 +21222,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
       <c r="B253" t="s">
         <v>7</v>
@@ -21262,7 +21236,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>950</v>
+        <v>913</v>
       </c>
       <c r="B254" t="s">
         <v>7</v>
@@ -21276,7 +21250,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>950</v>
+        <v>913</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -21290,7 +21264,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>950</v>
+        <v>913</v>
       </c>
       <c r="B256" t="s">
         <v>7</v>
@@ -21304,7 +21278,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>950</v>
+        <v>913</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -21318,7 +21292,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -21332,7 +21306,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -21346,7 +21320,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -21360,7 +21334,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -21374,7 +21348,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>952</v>
+        <v>915</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -21388,7 +21362,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>952</v>
+        <v>915</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -21402,7 +21376,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>952</v>
+        <v>915</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -21416,7 +21390,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>952</v>
+        <v>915</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -21430,7 +21404,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>952</v>
+        <v>915</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -21444,7 +21418,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>952</v>
+        <v>915</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -21458,7 +21432,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>953</v>
+        <v>916</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -21472,7 +21446,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>953</v>
+        <v>916</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -21486,7 +21460,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>954</v>
+        <v>917</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -21500,7 +21474,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>954</v>
+        <v>917</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -21514,7 +21488,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>954</v>
+        <v>917</v>
       </c>
       <c r="B272" t="s">
         <v>7</v>
@@ -21528,7 +21502,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>954</v>
+        <v>917</v>
       </c>
       <c r="B273" t="s">
         <v>7</v>
@@ -21542,7 +21516,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>955</v>
+        <v>918</v>
       </c>
       <c r="B274" t="s">
         <v>7</v>
@@ -21556,7 +21530,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>955</v>
+        <v>918</v>
       </c>
       <c r="B275" t="s">
         <v>7</v>
@@ -21570,7 +21544,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>956</v>
+        <v>919</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
@@ -21584,7 +21558,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>956</v>
+        <v>919</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
@@ -21598,7 +21572,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>956</v>
+        <v>919</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
@@ -21612,7 +21586,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>956</v>
+        <v>919</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
@@ -21626,7 +21600,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>957</v>
+        <v>920</v>
       </c>
       <c r="B280" t="s">
         <v>7</v>
@@ -21640,7 +21614,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>957</v>
+        <v>920</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
@@ -21654,7 +21628,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>957</v>
+        <v>920</v>
       </c>
       <c r="B282" t="s">
         <v>7</v>
@@ -21668,7 +21642,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>957</v>
+        <v>920</v>
       </c>
       <c r="B283" t="s">
         <v>7</v>
@@ -21682,7 +21656,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>958</v>
+        <v>921</v>
       </c>
       <c r="B284" t="s">
         <v>7</v>
@@ -21696,7 +21670,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>958</v>
+        <v>921</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
@@ -21710,7 +21684,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>958</v>
+        <v>921</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
@@ -21724,7 +21698,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>958</v>
+        <v>921</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -21738,7 +21712,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>958</v>
+        <v>921</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -21752,7 +21726,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>958</v>
+        <v>921</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -21766,7 +21740,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>959</v>
+        <v>922</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -21780,7 +21754,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>959</v>
+        <v>922</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -21794,7 +21768,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>959</v>
+        <v>922</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -21808,7 +21782,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>959</v>
+        <v>922</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
